--- a/CashFlow/EQR_cashflow.xlsx
+++ b/CashFlow/EQR_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>866033000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>881688000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-297532000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-506414000.0</v>
@@ -634,10 +630,8 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-13394000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>470000.0</v>
@@ -763,10 +757,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>-16267000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>-73558000.0</v>
@@ -892,10 +884,8 @@
           <t>Other operating activities</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>133000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1805000.0</v>
@@ -1095,10 +1085,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>1222443000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1257007000.0</v>
@@ -1224,10 +1212,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>311494000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>678663000.0</v>
@@ -1540,10 +1526,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>-3468000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-6548000.0</v>
@@ -1555,7 +1539,7 @@
         <v>-7167000.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>-8800000.0</v>
+        <v>-8799000.0</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>-9873000.0</v>
@@ -1669,10 +1653,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-83851000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-71575000.0</v>
@@ -1798,10 +1780,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>278004000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>672545000.0</v>
@@ -1927,10 +1907,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-607112900.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-1005003000.0</v>
@@ -2056,10 +2034,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>29376000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>16783000.0</v>
@@ -2384,10 +2360,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-900097000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-887028000.0</v>
@@ -2513,10 +2487,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-65547000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-71575000.0</v>
@@ -2642,10 +2614,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-1543381000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-1946823000.0</v>
@@ -2771,10 +2741,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-42934000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-17271000.0</v>
@@ -2900,10 +2868,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>99728000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>116999000.0</v>
@@ -3029,10 +2995,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>56794000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>99728000.0</v>
@@ -3158,10 +3122,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>24008000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>23174000.0</v>
@@ -3288,7 +3250,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-672699000.0</v>
+        <v>-897007000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>-883938000.0</v>
@@ -3414,10 +3376,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>-29690000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-74044000.0</v>
@@ -3543,10 +3503,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>-3468000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-6548000.0</v>
@@ -3558,7 +3516,7 @@
         <v>-7167000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>-8800000.0</v>
+        <v>-8799000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>-9873000.0</v>
@@ -3672,10 +3630,8 @@
           <t>Dividends Paid (Preffered)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>-3090000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-3090000.0</v>
@@ -3801,10 +3757,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>29376000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>16783000.0</v>
